--- a/target/classes/excel/sel_template.xlsx
+++ b/target/classes/excel/sel_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7100C791-1784-4AA3-BDC8-9C99F1C7D275}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D83F093-872A-4C20-9E42-FE4F2A854FBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4230" yWindow="3375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,112 +24,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>SirAlwaid</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{383A8C69-844A-4BDD-A603-37633DD3ECF2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SirAlwaid:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:area(lastCell="E3")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{88F728CA-E3FF-41AF-A87B-4AEDF2E550D5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SirAlwaid:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(items="u1_col1" var="u1_col1" direction="DOWN" lastCell="C1")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{6856F349-C7ED-4F2B-A452-91C475308AAF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SirAlwaid:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(items="u2_col2" var="u2_col2" direction="DOWN" lastCell="D1")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{380FD149-A5F5-4601-9B63-68EDD904CBFC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SirAlwaid:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(items="u1_col5" var="u1_col5" direction="DOWN" lastCell="E1")</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
@@ -155,26 +49,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -478,11 +359,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,6 +394,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/target/classes/excel/sel_template.xlsx
+++ b/target/classes/excel/sel_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D83F093-872A-4C20-9E42-FE4F2A854FBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C269B291-0D66-4E9A-9E87-BBAC73A0E51A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="3375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,7 +363,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -372,15 +372,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -390,6 +381,15 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/excel/sel_template.xlsx
+++ b/target/classes/excel/sel_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C269B291-0D66-4E9A-9E87-BBAC73A0E51A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DB34FC-17A9-4CDA-AB9D-3FE102CA25AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,7 +363,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
